--- a/db定義.xlsx
+++ b/db定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke/Documents/experiment-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2B498-D6D8-664B-BC0B-B0BBF053BE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB139E-0A2F-854F-A5BD-EF7F965262B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D42339D4-3F5E-E040-85F9-F09BD57040B5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{D42339D4-3F5E-E040-85F9-F09BD57040B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -107,14 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pdf_url</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://example.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,6 +243,22 @@
   </si>
   <si>
     <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_facesheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_facesheet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>criteria</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1,L2,L3,L4,L5,L6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -746,7 +754,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -771,13 +779,10 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -791,24 +796,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="N2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
@@ -824,21 +817,9 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>9096605286</v>
-      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
@@ -853,10 +834,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>39</v>
@@ -867,49 +848,40 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -925,41 +897,32 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>7</v>
-      </c>
-      <c r="K9" s="5">
-        <v>30</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>5</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>28</v>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="4">
+        <v>9096605286</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -975,42 +938,6 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>31</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>2</v>
-      </c>
-      <c r="R10" s="5">
-        <v>4</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
@@ -1025,50 +952,16 @@
       <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6</v>
-      </c>
-      <c r="K11" s="6">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>3</v>
-      </c>
-      <c r="R11" s="6">
-        <v>6</v>
-      </c>
-      <c r="S11" s="4"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1082,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>6</v>
@@ -1092,19 +985,37 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1124,35 +1035,123 @@
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5">
+        <v>30</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="S16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>12</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>32</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>3</v>
+      </c>
+      <c r="R18" s="6">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1160,40 +1159,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="G22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1207,7 +1239,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1218,7 +1250,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1226,7 +1258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:19">
       <c r="A27" s="3">
         <v>7</v>
       </c>
@@ -1234,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:19">
       <c r="K32" s="5"/>
       <c r="L32" s="13"/>
     </row>
